--- a/biology/Botanique/Ranunculus_bulbosus/Ranunculus_bulbosus.xlsx
+++ b/biology/Botanique/Ranunculus_bulbosus/Ranunculus_bulbosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renoncule bulbeuse
 Ranunculus bulbosus, la renoncule bulbeuse, est une espèce de plantes herbacées vivaces de la famille des Renonculacées.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges dressées et ramifiées mesurent de 20 à 60 cm de hauteur.
 Une de ses particularités : des sépales velus, réfléchis vers le pédoncule floral.
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La renoncule bulbeuse pousse dans les pelouses, les pâturages et les champs en général, préférant les sols pauvres en éléments nutritifs et bien drainés d'Europe occidentale (entre 60° N et la côte méditerranéenne).
 </t>
@@ -579,7 +595,9 @@
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante, comme les autres renoncules, contient de la renonculine, un glycoside toxique évité par le bétail à l'état frais, mais quand la plante sèche la toxine disparaît, de sorte que le foin contenant la plante est sans danger pour la consommation animale.
 </t>
@@ -610,9 +628,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (9 août 2013)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 août 2013) :
 sous-espèce Ranunculus bulbosus subsp. bulbosus</t>
         </is>
       </c>
